--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H2">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J2">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N2">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P2">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q2">
-        <v>2.460815629570889</v>
+        <v>0.05241600550533333</v>
       </c>
       <c r="R2">
-        <v>22.147340666138</v>
+        <v>0.471744049548</v>
       </c>
       <c r="S2">
-        <v>0.000543636371150994</v>
+        <v>1.689721083582261E-05</v>
       </c>
       <c r="T2">
-        <v>0.000543636371150994</v>
+        <v>1.689721083582261E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H3">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J3">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>3.323421</v>
       </c>
       <c r="N3">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P3">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q3">
-        <v>72.615980031942</v>
+        <v>20.625201685122</v>
       </c>
       <c r="R3">
-        <v>653.5438202874781</v>
+        <v>185.626815166098</v>
       </c>
       <c r="S3">
-        <v>0.01604211522300102</v>
+        <v>0.006648892414539474</v>
       </c>
       <c r="T3">
-        <v>0.01604211522300102</v>
+        <v>0.006648892414539474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.84976866666667</v>
+        <v>6.206015333333333</v>
       </c>
       <c r="H4">
-        <v>65.549306</v>
+        <v>18.618046</v>
       </c>
       <c r="I4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="J4">
-        <v>0.05020018890879543</v>
+        <v>0.0150172404156507</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N4">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P4">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q4">
-        <v>152.1585697954164</v>
+        <v>25.90662416737756</v>
       </c>
       <c r="R4">
-        <v>1369.427128158748</v>
+        <v>233.159617506398</v>
       </c>
       <c r="S4">
-        <v>0.03361443731464342</v>
+        <v>0.008351450790275401</v>
       </c>
       <c r="T4">
-        <v>0.03361443731464342</v>
+        <v>0.008351450790275401</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J5">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N5">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P5">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q5">
-        <v>43.36627776964477</v>
+        <v>3.252153164435334</v>
       </c>
       <c r="R5">
-        <v>390.296499926803</v>
+        <v>29.269378479918</v>
       </c>
       <c r="S5">
-        <v>0.009580354413275059</v>
+        <v>0.001048388124201111</v>
       </c>
       <c r="T5">
-        <v>0.009580354413275059</v>
+        <v>0.00104838812420111</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J6">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>3.323421</v>
       </c>
       <c r="N6">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P6">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q6">
         <v>1279.691466007677</v>
       </c>
       <c r="R6">
-        <v>11517.2231940691</v>
+        <v>11517.22319406909</v>
       </c>
       <c r="S6">
-        <v>0.2827057892568007</v>
+        <v>0.4125307966043782</v>
       </c>
       <c r="T6">
-        <v>0.2827057892568007</v>
+        <v>0.4125307966043782</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597572</v>
       </c>
       <c r="J7">
-        <v>0.8846641374295412</v>
+        <v>0.9317452840597571</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N7">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P7">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q7">
-        <v>2681.448672337371</v>
+        <v>1607.377535802516</v>
       </c>
       <c r="R7">
-        <v>24133.03805103634</v>
+        <v>14466.39782222265</v>
       </c>
       <c r="S7">
-        <v>0.5923779937594654</v>
+        <v>0.5181660993311777</v>
       </c>
       <c r="T7">
-        <v>0.5923779937594654</v>
+        <v>0.5181660993311777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H8">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J8">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1126243333333333</v>
+        <v>0.008446</v>
       </c>
       <c r="N8">
-        <v>0.337873</v>
+        <v>0.025338</v>
       </c>
       <c r="O8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="P8">
-        <v>0.01082936903163217</v>
+        <v>0.001125187475737063</v>
       </c>
       <c r="Q8">
-        <v>3.192953797055666</v>
+        <v>0.1858194803406667</v>
       </c>
       <c r="R8">
-        <v>28.736584173501</v>
+        <v>1.672375323066</v>
       </c>
       <c r="S8">
-        <v>0.0007053782472061165</v>
+        <v>5.990214070012948E-05</v>
       </c>
       <c r="T8">
-        <v>0.0007053782472061165</v>
+        <v>5.990214070012948E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H9">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J9">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>3.323421</v>
       </c>
       <c r="N9">
-        <v>9.970263000000001</v>
+        <v>9.970262999999999</v>
       </c>
       <c r="O9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949732</v>
       </c>
       <c r="P9">
-        <v>0.3195628457125253</v>
+        <v>0.4427506139949733</v>
       </c>
       <c r="Q9">
-        <v>94.220577268659</v>
+        <v>73.11820544319899</v>
       </c>
       <c r="R9">
-        <v>847.985195417931</v>
+        <v>658.0638489887909</v>
       </c>
       <c r="S9">
-        <v>0.02081494123272353</v>
+        <v>0.02357092497605553</v>
       </c>
       <c r="T9">
-        <v>0.02081494123272353</v>
+        <v>0.02357092497605552</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.350479</v>
+        <v>22.00088566666667</v>
       </c>
       <c r="H10">
-        <v>85.05143699999999</v>
+        <v>66.002657</v>
       </c>
       <c r="I10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="J10">
-        <v>0.06513567366166337</v>
+        <v>0.05323747552459213</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.963852666666665</v>
+        <v>4.174437666666667</v>
       </c>
       <c r="N10">
-        <v>20.891558</v>
+        <v>12.523313</v>
       </c>
       <c r="O10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="P10">
-        <v>0.6696077852558425</v>
+        <v>0.5561241985292896</v>
       </c>
       <c r="Q10">
-        <v>197.4285587854273</v>
+        <v>91.84132582696012</v>
       </c>
       <c r="R10">
-        <v>1776.857029068846</v>
+        <v>826.571932442641</v>
       </c>
       <c r="S10">
-        <v>0.04361535418173372</v>
+        <v>0.02960664840783647</v>
       </c>
       <c r="T10">
-        <v>0.04361535418173372</v>
+        <v>0.02960664840783647</v>
       </c>
     </row>
   </sheetData>
